--- a/cc.xlsx
+++ b/cc.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Tanggal</t>
   </si>
@@ -25,9 +25,6 @@
   </si>
   <si>
     <t>Lokasi_Kebocoran</t>
-  </si>
-  <si>
-    <t>11.40-11.47</t>
   </si>
   <si>
     <t>12.11-13.00</t>
@@ -401,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,13 +423,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -500,6 +497,12 @@
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>45201</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="C7" s="2">
         <v>26.42</v>
       </c>
@@ -512,346 +515,246 @@
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>45210</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="C8" s="2">
-        <v>26.42</v>
+        <v>26.41</v>
       </c>
       <c r="D8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>45219</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C9" s="2">
-        <v>26.42</v>
+        <v>26.4</v>
       </c>
       <c r="D9" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E9" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>45243</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="C10" s="2">
-        <v>26.42</v>
+        <v>3.96</v>
       </c>
       <c r="D10" s="2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E10" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>45243</v>
+      </c>
+      <c r="B11" s="5">
+        <v>6.16</v>
+      </c>
       <c r="C11" s="2">
-        <v>26.42</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="D11" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E11" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>45192</v>
+        <v>45251</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C12" s="2">
-        <v>26.42</v>
+        <v>4.33</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E12" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>45201</v>
-      </c>
-      <c r="B13" s="5" t="s">
+        <v>45268</v>
+      </c>
+      <c r="B13" s="5">
+        <v>10.5</v>
+      </c>
+      <c r="C13" s="2">
+        <v>4.24</v>
+      </c>
+      <c r="D13" s="2">
+        <v>9</v>
+      </c>
+      <c r="E13" s="2">
+        <v>13</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="2">
+        <v>7.6</v>
+      </c>
+      <c r="D14" s="2">
+        <v>6</v>
+      </c>
+      <c r="E14" s="2">
+        <v>14</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="2">
+        <v>13.01</v>
+      </c>
+      <c r="D15" s="2">
+        <v>5</v>
+      </c>
+      <c r="E15" s="2">
+        <v>18</v>
+      </c>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="2">
+        <v>18</v>
+      </c>
+      <c r="D16" s="2">
         <v>4</v>
       </c>
-      <c r="C13" s="2">
-        <v>26.42</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>45210</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="2">
-        <v>26.42</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>45219</v>
-      </c>
-      <c r="B15" s="5" t="s">
+      <c r="E16" s="2">
+        <v>14</v>
+      </c>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="2">
+        <v>23.7</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2</v>
+      </c>
+      <c r="E17" s="2">
         <v>6</v>
       </c>
-      <c r="C15" s="2">
-        <v>26.42</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>45243</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="2">
-        <v>3.96</v>
-      </c>
-      <c r="D16" s="2">
-        <v>12</v>
-      </c>
-      <c r="E16" s="2">
-        <v>9</v>
-      </c>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>45243</v>
-      </c>
-      <c r="B17" s="5">
-        <v>6.16</v>
-      </c>
-      <c r="C17" s="2">
-        <v>4.0199999999999996</v>
-      </c>
-      <c r="D17" s="2">
-        <v>9</v>
-      </c>
-      <c r="E17" s="2">
-        <v>10</v>
-      </c>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>45251</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="2">
-        <v>4.33</v>
-      </c>
-      <c r="D18" s="2">
-        <v>8</v>
-      </c>
-      <c r="E18" s="2">
-        <v>14</v>
+      <c r="C18">
+        <v>23.6</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>6</v>
       </c>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>45268</v>
-      </c>
-      <c r="B19" s="5">
-        <v>10.5</v>
-      </c>
-      <c r="C19" s="2">
-        <v>4.24</v>
-      </c>
-      <c r="D19" s="2">
-        <v>9</v>
-      </c>
-      <c r="E19" s="2">
-        <v>73</v>
+      <c r="C19">
+        <v>25.01</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
       </c>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="2">
-        <v>7.6</v>
-      </c>
-      <c r="D20" s="2">
-        <v>6</v>
-      </c>
-      <c r="E20" s="2">
-        <v>17</v>
+      <c r="C20" s="6">
+        <v>25.01</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
       </c>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="2">
-        <v>13.01</v>
-      </c>
-      <c r="D21" s="2">
-        <v>5</v>
-      </c>
-      <c r="E21" s="2">
-        <v>18</v>
+      <c r="C21">
+        <v>26.15</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="2">
-        <v>18</v>
-      </c>
-      <c r="D22" s="2">
-        <v>4</v>
-      </c>
-      <c r="E22" s="2">
-        <v>14</v>
+      <c r="C22">
+        <v>26.15</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="2">
-        <v>23.7</v>
-      </c>
-      <c r="D23" s="2">
-        <v>1</v>
-      </c>
-      <c r="E23" s="2">
-        <v>6</v>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>131</v>
+      </c>
+      <c r="E23">
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24">
-        <v>23.6</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="E24">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C25">
-        <v>25.01</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C26" s="6">
-        <v>25.01</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C27">
-        <v>26.15</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C28">
-        <v>26.15</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>133</v>
-      </c>
-      <c r="E29">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>134</v>
-      </c>
-      <c r="E30">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>131</v>
-      </c>
-      <c r="E31">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>133</v>
-      </c>
-      <c r="E32">
         <v>57</v>
       </c>
     </row>

--- a/cc.xlsx
+++ b/cc.xlsx
@@ -85,11 +85,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -398,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,334 +426,273 @@
       <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="C2" s="6">
+      <c r="A2" s="2">
+        <v>45201</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>26.42</v>
+      </c>
+      <c r="D2" s="1">
         <v>0</v>
       </c>
-      <c r="D2" s="6">
-        <v>133</v>
-      </c>
-      <c r="E2" s="6">
-        <v>46</v>
-      </c>
-      <c r="F2" s="2"/>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="C3" s="6">
-        <v>0</v>
-      </c>
-      <c r="D3" s="6">
-        <v>134</v>
-      </c>
-      <c r="E3" s="6">
-        <v>40</v>
-      </c>
-      <c r="F3" s="2"/>
+      <c r="A3" s="2">
+        <v>45210</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>26.41</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="C4" s="6">
-        <v>0</v>
-      </c>
-      <c r="D4" s="6">
-        <v>132</v>
-      </c>
-      <c r="E4" s="6">
-        <v>44</v>
-      </c>
-      <c r="F4" s="2"/>
+      <c r="A4" s="2">
+        <v>45219</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>26.4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="C5" s="6">
-        <v>0</v>
-      </c>
-      <c r="D5" s="6">
-        <v>131</v>
-      </c>
-      <c r="E5" s="6">
-        <v>50</v>
-      </c>
-      <c r="F5" s="2"/>
+      <c r="A5" s="2">
+        <v>45243</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3.96</v>
+      </c>
+      <c r="D5" s="1">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C6" s="6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="6">
-        <v>133</v>
-      </c>
-      <c r="E6" s="6">
-        <v>57</v>
-      </c>
-      <c r="F6" s="2"/>
+      <c r="A6" s="2">
+        <v>45243</v>
+      </c>
+      <c r="B6" s="3">
+        <v>6.16</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="D6" s="1">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>45201</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="2">
+        <v>45251</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4.33</v>
+      </c>
+      <c r="D7" s="1">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>45268</v>
+      </c>
+      <c r="B8" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4.24</v>
+      </c>
+      <c r="D8" s="1">
+        <v>9</v>
+      </c>
+      <c r="E8" s="1">
+        <v>13</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="1">
+        <v>7.6</v>
+      </c>
+      <c r="D9" s="1">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1">
+        <v>14</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="1">
+        <v>13.01</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1">
+        <v>18</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="1">
+        <v>18</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4</v>
+      </c>
+      <c r="E11" s="1">
+        <v>14</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="1">
+        <v>23.7</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>6</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>23.6</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>25.01</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="4">
+        <v>25.01</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>26.15</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
         <v>3</v>
       </c>
-      <c r="C7" s="2">
-        <v>26.42</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>45210</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="2">
-        <v>26.41</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>26.15</v>
+      </c>
+      <c r="D17">
         <v>1</v>
       </c>
-      <c r="E8" s="2">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>45219</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2">
-        <v>26.4</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>21</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>25</v>
+      </c>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>21.3</v>
+      </c>
+      <c r="D19">
         <v>2</v>
       </c>
-      <c r="E9" s="2">
-        <v>2</v>
-      </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>45243</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="2">
-        <v>3.96</v>
-      </c>
-      <c r="D10" s="2">
-        <v>12</v>
-      </c>
-      <c r="E10" s="2">
-        <v>9</v>
-      </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>45243</v>
-      </c>
-      <c r="B11" s="5">
-        <v>6.16</v>
-      </c>
-      <c r="C11" s="2">
-        <v>4.0199999999999996</v>
-      </c>
-      <c r="D11" s="2">
-        <v>9</v>
-      </c>
-      <c r="E11" s="2">
-        <v>10</v>
-      </c>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>45251</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="2">
-        <v>4.33</v>
-      </c>
-      <c r="D12" s="2">
-        <v>8</v>
-      </c>
-      <c r="E12" s="2">
-        <v>10</v>
-      </c>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>45268</v>
-      </c>
-      <c r="B13" s="5">
-        <v>10.5</v>
-      </c>
-      <c r="C13" s="2">
-        <v>4.24</v>
-      </c>
-      <c r="D13" s="2">
-        <v>9</v>
-      </c>
-      <c r="E13" s="2">
-        <v>13</v>
-      </c>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="2">
-        <v>7.6</v>
-      </c>
-      <c r="D14" s="2">
-        <v>6</v>
-      </c>
-      <c r="E14" s="2">
-        <v>14</v>
-      </c>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="2">
-        <v>13.01</v>
-      </c>
-      <c r="D15" s="2">
-        <v>5</v>
-      </c>
-      <c r="E15" s="2">
-        <v>18</v>
-      </c>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="2">
-        <v>18</v>
-      </c>
-      <c r="D16" s="2">
-        <v>4</v>
-      </c>
-      <c r="E16" s="2">
-        <v>14</v>
-      </c>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="2">
-        <v>23.7</v>
-      </c>
-      <c r="D17" s="2">
-        <v>2</v>
-      </c>
-      <c r="E17" s="2">
-        <v>6</v>
-      </c>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C18">
-        <v>23.6</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>6</v>
-      </c>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C19">
-        <v>25.01</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
       <c r="E19">
-        <v>4</v>
-      </c>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="6">
-        <v>25.01</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>4</v>
-      </c>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C21">
-        <v>26.15</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C22">
-        <v>26.15</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>131</v>
-      </c>
-      <c r="E23">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>133</v>
-      </c>
-      <c r="E24">
-        <v>57</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
